--- a/medicine/Enfance/Jessie_Magana/Jessie_Magana.xlsx
+++ b/medicine/Enfance/Jessie_Magana/Jessie_Magana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jessie Magana, née en 1974 en Haute-Savoie, est une autrice française de romans et documentaires, principalement dans le domaine de la littérature jeunesse.
 </t>
@@ -511,20 +523,22 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née en 1974, Jessie Magana se consacre à des études de lettres et sciences humaines. Elle travaille dans un premier temps dans l'édition numérique, puis dans l'édition papier, en tant qu'éditrice free-lance.
-Elle a également dirigé plusieurs collections[1] : aux éditions Autrement la collection « Français d'ailleurs »[2],[3] sur l'histoire de l'immigration[4], depuis 2006[3] ; aux éditions le Cavalier bleu la collection « Libertés plurielles » ; aux éditions Talents Hauts la collection « Les Héroïques » depuis 2016[2].
-Elle est membre de la Charte des auteurs et illustrateurs jeunesse[5].
+Elle a également dirigé plusieurs collections : aux éditions Autrement la collection « Français d'ailleurs », sur l'histoire de l'immigration, depuis 2006 ; aux éditions le Cavalier bleu la collection « Libertés plurielles » ; aux éditions Talents Hauts la collection « Les Héroïques » depuis 2016.
+Elle est membre de la Charte des auteurs et illustrateurs jeunesse.
 Elle écrit son premier ouvrage en 2008, Général de Bollardière : Non à la torture, dans la collection « ceux qui ont dit non » dirigée par Murielle Szac, chez Actes Sud Junior.
-Se définissant comme une autrice engagée[6], elle publie des romans biographiques (Général de Bollardière : non à la torture, Gisèle Halimi : non au viol[7],[8], Henri Gautier, métallo et Résistant[9]), des documentaires sur le sexisme[10],[11] (Les mots pour combattre le sexisme[12],[13],
-[14]), le racisme (Des mots pour combattre le racisme[15]) ou les discriminations en général (Riposte : comment répondre à la bêtise ordinaire[16] ou Tous différents mais tous égaux ?). Elle questionne notamment les stéréotypes de genre ou d'origines sociales ou ethniques[17], en littérature jeunesse[18],[19].
-Elle s'intéresse également à l'histoire de l'immigration, qu'elle retrace dans Rue des Quatre-Vents[20], illustré par Magali Attiogbé, l'histoire d'une rue à travers les différentes personnes qui l'ont habitée. L'ouvrage est récompensé en 2019 d'une "Mention" au prestigieux prix international, le Prix BolognaRagazzi[21],[22], dans la catégorie Non Fiction, à la Foire du livre de jeunesse de Bologne.
-Elle est co-autrice de Eux, c'est nous[23],[24], un ouvrage sur les réfugiés, dont l'intégralité des bénéfices a été reversé à la Cimade[23]. Elle a fait partie des organisatrices, avec l'association Encrage, d'une vente d'illustrations au profit de l'accueil des réfugiés[25].
-Passionnée de cartographie, est également co-autrice de deux atlas géographiques : Atlas : Comment va le monde ?[26] et Atlas d'histoire : D'où vient la France[27],[28].
-Nos elles déployées[29], roman ado, est publié en 2021. Selon La Revue des livres pour enfants : « Roman conséquent, à la fois documenté et sensible, sur le combat au féminin, en France et en Algérie. [...] L'autrice nous invite ici à une immersion intime dans le parcours engagé de trois femmes[30] », sur « trois générations[29] ».
-Elle publie à nouveau un ouvrage documentaire sur Gisèle Halimi en 2022, chez un autre éditeur, Gallimard jeunesse, dans collection « Les Grandes Vies » : Gisèle Halimi[31],[32], illustré par Eloïse Heinzer.
-En 2023 est publié son roman pour adolescents Free ride, « Un roman psychologique[33] » autour d'une jeune fille sortant d'un coma. Jessie Magana publie un « Témoignage » pour ce roman, dans le journal Libération en novembre 2023, au sujet de l'écriture de scènes de sexe destinées à un public adolescent[34]. L'ouvrage est lauréat du Prix Handi-Livres 2023[35], dans la catégorie Meilleur livre jeunesse adolescent.
+Se définissant comme une autrice engagée, elle publie des romans biographiques (Général de Bollardière : non à la torture, Gisèle Halimi : non au viol Henri Gautier, métallo et Résistant), des documentaires sur le sexisme, (Les mots pour combattre le sexisme
+), le racisme (Des mots pour combattre le racisme) ou les discriminations en général (Riposte : comment répondre à la bêtise ordinaire ou Tous différents mais tous égaux ?). Elle questionne notamment les stéréotypes de genre ou d'origines sociales ou ethniques, en littérature jeunesse,.
+Elle s'intéresse également à l'histoire de l'immigration, qu'elle retrace dans Rue des Quatre-Vents, illustré par Magali Attiogbé, l'histoire d'une rue à travers les différentes personnes qui l'ont habitée. L'ouvrage est récompensé en 2019 d'une "Mention" au prestigieux prix international, le Prix BolognaRagazzi dans la catégorie Non Fiction, à la Foire du livre de jeunesse de Bologne.
+Elle est co-autrice de Eux, c'est nous un ouvrage sur les réfugiés, dont l'intégralité des bénéfices a été reversé à la Cimade. Elle a fait partie des organisatrices, avec l'association Encrage, d'une vente d'illustrations au profit de l'accueil des réfugiés.
+Passionnée de cartographie, est également co-autrice de deux atlas géographiques : Atlas : Comment va le monde ? et Atlas d'histoire : D'où vient la France,.
+Nos elles déployées, roman ado, est publié en 2021. Selon La Revue des livres pour enfants : « Roman conséquent, à la fois documenté et sensible, sur le combat au féminin, en France et en Algérie. [...] L'autrice nous invite ici à une immersion intime dans le parcours engagé de trois femmes », sur « trois générations ».
+Elle publie à nouveau un ouvrage documentaire sur Gisèle Halimi en 2022, chez un autre éditeur, Gallimard jeunesse, dans collection « Les Grandes Vies » : Gisèle Halimi illustré par Eloïse Heinzer.
+En 2023 est publié son roman pour adolescents Free ride, « Un roman psychologique » autour d'une jeune fille sortant d'un coma. Jessie Magana publie un « Témoignage » pour ce roman, dans le journal Libération en novembre 2023, au sujet de l'écriture de scènes de sexe destinées à un public adolescent. L'ouvrage est lauréat du Prix Handi-Livres 2023, dans la catégorie Meilleur livre jeunesse adolescent.
 </t>
         </is>
       </c>
@@ -553,28 +567,30 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Général de Bollardière : Non à la torture, coll. « Ceux qui ont dit non », Actes Sud Junior, 2008.
-Gisèle Halimi : Non au viol[7], coll. "Ceux qui ont dit non", Actes Sud Junior, 2013
+Gisèle Halimi : Non au viol, coll. "Ceux qui ont dit non", Actes Sud Junior, 2013
  Non à l'indifférence, avec Gérard Dhôtel, Nimrod, Maria Poblete, Elsa Sola et Murielle Szac, coll. « Ceux qui ont dit non », Actes Sud junior, 2013
 Riposte ! Comment répondre à la bêtise ordinaire, (illustré par Alain Pilon), Actes Sud Junior, 2014.
 Comment parler de l’égalité filles-garçons aux enfants, Le Baron perché, 2014.
-Les Mots indispensables pour parler du sexisme[12], Syros, 2014.
-rééd. augmentée sous le titre Les Mots pour combattre le sexisme[13],[14], Syros, 2019
-Eux, c’est nous[23],[24] (avec Daniel Pennac et Carole Saturno, illustré par Serge Bloch), Collectif des éditeurs jeunesse avec les réfugiés, diffusion Gallimard Jeunesse, 2015.
+Les Mots indispensables pour parler du sexisme, Syros, 2014.
+rééd. augmentée sous le titre Les Mots pour combattre le sexisme Syros, 2019
+Eux, c’est nous, (avec Daniel Pennac et Carole Saturno, illustré par Serge Bloch), Collectif des éditeurs jeunesse avec les réfugiés, diffusion Gallimard Jeunesse, 2015.
 Des cailloux à ma fenêtre, coll. « Les Héroïques », éditions Talents Hauts, 2016.
-Atlas : Comment va le monde ?[26] (avec Laure Flavigny et Aurélie Boissière, illustré par Séverine Assous), Actes Sud Junior, 2016.
+Atlas : Comment va le monde ? (avec Laure Flavigny et Aurélie Boissière, illustré par Séverine Assous), Actes Sud Junior, 2016.
 D’espoir et d’acier : Henri Gautier, métallo et Résistant (illustré par Sébastien Vassant), éditions de l'Atelier, 2018.
 Rue des Quatre-vents : au fil des migrations, illustrations de Magali Attiogbé, les Éditions des Éléphants, 2018
-Les Mots pour combattre le sexisme[13],[14], Syros, 2019
-rééd. augmentée du titre  Les Mots indispensables pour parler du sexisme[12], Syros, 2014.
-Des Mots pour combattre le racisme[15] (avec Alexandre Messager), Syros, 2020.
-Atlas d’histoire : D’où vient la France ?[27] (avec Laure Flavigny et Aurélie Boissière, illustré par Julien Billaudeau), Actes Sud Junior, 2020.
-Nos elles déployées[30], éditions Thierry Magnier, 2021.
+Les Mots pour combattre le sexisme Syros, 2019
+rééd. augmentée du titre  Les Mots indispensables pour parler du sexisme, Syros, 2014.
+Des Mots pour combattre le racisme (avec Alexandre Messager), Syros, 2020.
+Atlas d’histoire : D’où vient la France ? (avec Laure Flavigny et Aurélie Boissière, illustré par Julien Billaudeau), Actes Sud Junior, 2020.
+Nos elles déployées, éditions Thierry Magnier, 2021.
 Tous différents mais tous égaux ! Et toutes les questions que tu te poses sur le sexisme, le racisme et bien d’autres discriminations (illustré par Clémence Lallemand), Fleurus, 2021.
-Gisèle Halimi[31],[32], illustré par Eloïse Heinzer, collection "Les Grandes Vies", Gallimard jeunesse, 2022.
-Free Ride[33], éditions Thierry Magnier, 2023.
+Gisèle Halimi illustré par Eloïse Heinzer, collection "Les Grandes Vies", Gallimard jeunesse, 2022.
+Free Ride, éditions Thierry Magnier, 2023.
 Tadellala : Histoire d'une friponne, illustré par Stéphane Kiehl, Actes Sud Jeunesse, 2023.</t>
         </is>
       </c>
@@ -603,12 +619,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2019 :
- "Mention" au Prix BolognaRagazzi, catégorie Non Fiction[21],[22], Foire du livre de jeunesse de Bologne  pour Rue des Quatre-Vents, illustré par Magali Attiogbé.
-Sélection Prix UNICEF[36] pour Des cailloux à ma fenêtre 
-2023 : Prix Handi-Livres[35], meilleur livre jeunesse adolescent, pour Free Ride.</t>
+ "Mention" au Prix BolognaRagazzi, catégorie Non Fiction Foire du livre de jeunesse de Bologne  pour Rue des Quatre-Vents, illustré par Magali Attiogbé.
+Sélection Prix UNICEF pour Des cailloux à ma fenêtre 
+2023 : Prix Handi-Livres, meilleur livre jeunesse adolescent, pour Free Ride.</t>
         </is>
       </c>
     </row>
